--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en País Vasco</t>
+          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Andalucia</t>
+          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7414,7 +7414,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en C.Valenciana</t>
+          <t>Nivel de estudios en C.Valenciana (tasa de respuesta: 99,46%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Barcelona</t>
+          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93093</t>
+          <t>107422</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>87491</t>
+          <t>101455</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97801</t>
+          <t>112779</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>112078</t>
+          <t>134451</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>107759</t>
+          <t>129755</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>116520</t>
+          <t>139027</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>205171</t>
+          <t>241873</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>197335</t>
+          <t>233981</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>211377</t>
+          <t>249164</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>70,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>75,26%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48924</t>
+          <t>51366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44141</t>
+          <t>45827</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54106</t>
+          <t>57124</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30057</t>
+          <t>33296</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25717</t>
+          <t>28705</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34373</t>
+          <t>38013</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>78981</t>
+          <t>84662</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>72937</t>
+          <t>77666</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>86356</t>
+          <t>92334</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>5840</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>887</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2902</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>143053</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>143053</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>143053</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>288838</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>288838</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>288838</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26603</t>
+          <t>29992</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22931</t>
+          <t>26169</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30812</t>
+          <t>34039</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38402</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34360</t>
+          <t>39719</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>42991</t>
+          <t>49390</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>65005</t>
+          <t>74412</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>59472</t>
+          <t>68090</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>70421</t>
+          <t>81495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>38,32%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50222</t>
+          <t>56154</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46163</t>
+          <t>51955</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54049</t>
+          <t>60141</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,96%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67293</t>
+          <t>75227</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62876</t>
+          <t>70592</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71541</t>
+          <t>80318</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>117516</t>
+          <t>131382</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>112094</t>
+          <t>124610</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>123476</t>
+          <t>137620</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>61,74%</t>
+          <t>61,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>64,7%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6721</t>
+          <t>6333</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3603</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5631</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7817</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>5054</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10824</t>
+          <t>9420</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81038</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81038</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81038</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109298</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>109298</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109298</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>190337</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>190337</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190337</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13193</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16438</t>
+          <t>18148</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6972</t>
+          <t>7184</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12041</t>
+          <t>12654</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>22302</t>
+          <t>24120</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>18565</t>
+          <t>20373</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>26445</t>
+          <t>28765</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>124624</t>
+          <t>117567</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>119289</t>
+          <t>113069</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>129454</t>
+          <t>122048</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,02%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42600</t>
+          <t>40721</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39364</t>
+          <t>37406</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46041</t>
+          <t>44201</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,1%</t>
+          <t>65,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>71,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>167223</t>
+          <t>158288</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>161933</t>
+          <t>152388</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>173309</t>
+          <t>163777</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>75,85%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25998</t>
+          <t>21907</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21814</t>
+          <t>18647</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30554</t>
+          <t>26281</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>11611</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9217</t>
+          <t>9142</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14567</t>
+          <t>14227</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>37778</t>
+          <t>33518</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>32940</t>
+          <t>29259</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>42227</t>
+          <t>38155</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>17,67%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163815</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163815</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163815</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>227303</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>227303</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>227303</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9352</t>
+          <t>10419</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7101</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12426</t>
+          <t>13724</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17327</t>
+          <t>18421</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14304</t>
+          <t>14938</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20972</t>
+          <t>22108</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>26679</t>
+          <t>28840</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>22816</t>
+          <t>24665</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>31130</t>
+          <t>33933</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>129715</t>
+          <t>131384</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>124565</t>
+          <t>126461</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>134895</t>
+          <t>136158</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>131728</t>
+          <t>136314</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>126403</t>
+          <t>130421</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>136384</t>
+          <t>140922</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,66%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>70,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>261443</t>
+          <t>267698</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254562</t>
+          <t>260226</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>268454</t>
+          <t>274945</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>72,77%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>77,33%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31898</t>
+          <t>29733</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27192</t>
+          <t>25479</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36586</t>
+          <t>34104</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29781</t>
+          <t>29292</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>25925</t>
+          <t>25355</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>34497</t>
+          <t>34023</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>61679</t>
+          <t>59024</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>55755</t>
+          <t>52735</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>68173</t>
+          <t>65451</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2799</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8379</t>
+          <t>10590</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>8689</t>
+          <t>11495</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>8354</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>11148</t>
+          <t>14729</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>58290</t>
+          <t>54844</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>54695</t>
+          <t>51624</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61272</t>
+          <t>58108</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>73,38%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>86198</t>
+          <t>81911</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>81389</t>
+          <t>77329</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>90654</t>
+          <t>86203</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>144488</t>
+          <t>136756</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>138517</t>
+          <t>131111</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>150240</t>
+          <t>142216</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>71,08%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15866</t>
+          <t>15832</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13202</t>
+          <t>13238</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19208</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40666</t>
+          <t>36008</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36145</t>
+          <t>31894</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45423</t>
+          <t>40276</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>56532</t>
+          <t>51840</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>50685</t>
+          <t>46721</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>62136</t>
+          <t>56973</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>28,47%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>132754</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>132754</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132754</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>209709</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>209709</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>209709</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7985</t>
+          <t>10123</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10285</t>
+          <t>10654</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>7825</t>
+          <t>8221</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>14021</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>16110</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>12862</t>
+          <t>14293</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>19979</t>
+          <t>22045</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>32940</t>
+          <t>41715</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>30501</t>
+          <t>38230</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>35073</t>
+          <t>44365</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>67287</t>
+          <t>70803</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>62554</t>
+          <t>66107</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>71394</t>
+          <t>75734</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>61,26%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>100226</t>
+          <t>112518</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>95112</t>
+          <t>106697</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>105662</t>
+          <t>118643</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>68,06%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>3254</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>6886</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>38973</t>
+          <t>39267</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>35015</t>
+          <t>34721</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>43275</t>
+          <t>43619</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>38203</t>
+          <t>38819</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>48039</t>
+          <t>49233</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>42873</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42873</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>42873</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>116545</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>116545</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>116545</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>159417</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>159417</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>159417</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>141375</t>
+          <t>162447</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>160319</t>
+          <t>183441</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>182623</t>
+          <t>213442</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>203451</t>
+          <t>236462</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>330315</t>
+          <t>383096</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>358280</t>
+          <t>415222</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>27,87%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>444715</t>
+          <t>453031</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>433842</t>
+          <t>441963</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>455338</t>
+          <t>465084</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>65,26%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>66,82%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>412457</t>
+          <t>426439</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>436812</t>
+          <t>450375</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>854225</t>
+          <t>874230</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>884667</t>
+          <t>908431</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>60,98%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>78113</t>
+          <t>72262</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>93599</t>
+          <t>87428</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>116765</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>135200</t>
+          <t>129431</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>199407</t>
+          <t>187864</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>223729</t>
+          <t>210734</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>256495</t>
+          <t>256059</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>292091</t>
+          <t>292208</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>231728</t>
+          <t>232497</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>254275</t>
+          <t>254442</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>496351</t>
+          <t>496982</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>539181</t>
+          <t>539612</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>81,22%</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66639</t>
+          <t>67340</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>102154</t>
+          <t>102372</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38494</t>
+          <t>39778</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60390</t>
+          <t>60661</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>113188</t>
+          <t>113931</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>155006</t>
+          <t>154931</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>23,32%</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12049</t>
+          <t>11761</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12371</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6723</t>
+          <t>6612</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>18958</t>
+          <t>18411</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81157</t>
+          <t>78917</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>115243</t>
+          <t>113305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>83000</t>
+          <t>81426</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108204</t>
+          <t>108702</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>168588</t>
+          <t>169741</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>214840</t>
+          <t>213301</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>36,52%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>197771</t>
+          <t>199784</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>233243</t>
+          <t>234636</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,03%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>72,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>143652</t>
+          <t>145143</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>170936</t>
+          <t>172703</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>66,4%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>353107</t>
+          <t>352854</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>399665</t>
+          <t>397525</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,05%</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5717</t>
+          <t>5676</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18470</t>
+          <t>17563</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3644</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11662</t>
+          <t>11430</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11356</t>
+          <t>11986</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25779</t>
+          <t>25181</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4747</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43962</t>
+          <t>46286</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16496</t>
+          <t>15046</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>7769</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>55184</t>
+          <t>53664</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>352991</t>
+          <t>352378</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>460000</t>
+          <t>459809</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56999</t>
+          <t>56425</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71226</t>
+          <t>71325</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>409333</t>
+          <t>411852</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>547771</t>
+          <t>540132</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>94,27%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>10187</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>82015</t>
+          <t>82076</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17914</t>
+          <t>18059</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31071</t>
+          <t>30817</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>18289</t>
+          <t>23201</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>114406</t>
+          <t>111638</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21575</t>
+          <t>21032</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47145</t>
+          <t>44971</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17101</t>
+          <t>12952</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>66780</t>
+          <t>65913</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39883</t>
+          <t>40547</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>97164</t>
+          <t>96707</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>365458</t>
+          <t>367479</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>409313</t>
+          <t>408726</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>496746</t>
+          <t>496662</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>600257</t>
+          <t>603441</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>878793</t>
+          <t>874783</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1038758</t>
+          <t>1037407</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>88,63%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93641</t>
+          <t>95420</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>131156</t>
+          <t>132709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17532</t>
+          <t>17606</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>77210</t>
+          <t>76970</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>95196</t>
+          <t>91945</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>202694</t>
+          <t>207751</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,75%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12916</t>
+          <t>12609</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5468</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>18414</t>
+          <t>18975</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>10322</t>
+          <t>10545</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>26334</t>
+          <t>26013</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>132714</t>
+          <t>133166</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>160957</t>
+          <t>161297</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>250121</t>
+          <t>251065</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>341345</t>
+          <t>344816</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>397050</t>
+          <t>397649</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>498619</t>
+          <t>501829</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>78,79%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45817</t>
+          <t>45167</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>73624</t>
+          <t>72537</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>78857</t>
+          <t>73884</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>162791</t>
+          <t>160443</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>126580</t>
+          <t>120584</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>221704</t>
+          <t>220382</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>34,6%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12821</t>
+          <t>12207</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38967</t>
+          <t>37510</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>22790</t>
+          <t>22592</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>47635</t>
+          <t>47069</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>41129</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>75367</t>
+          <t>75960</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>125050</t>
+          <t>126074</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>151592</t>
+          <t>152243</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>253159</t>
+          <t>251282</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>292314</t>
+          <t>292546</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>388792</t>
+          <t>388042</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>441827</t>
+          <t>439119</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>67,26%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>947</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7822</t>
+          <t>7661</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>161561</t>
+          <t>160174</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>198899</t>
+          <t>199088</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>161330</t>
+          <t>162749</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>205526</t>
+          <t>204612</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,34%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>292302</t>
+          <t>314724</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>519366</t>
+          <t>528647</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>320279</t>
+          <t>309203</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>498702</t>
+          <t>494431</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>721237</t>
+          <t>703717</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>995007</t>
+          <t>1001467</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>23,39%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1301127</t>
+          <t>1292551</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1643035</t>
+          <t>1602779</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>62,64%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1257644</t>
+          <t>1264741</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1603342</t>
+          <t>1619049</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>73,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2599018</t>
+          <t>2580921</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>3046532</t>
+          <t>3086805</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>143651</t>
+          <t>148892</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>267411</t>
+          <t>267305</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>279741</t>
+          <t>281593</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>452346</t>
+          <t>455114</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>506926</t>
+          <t>491533</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>704469</t>
+          <t>705103</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -11043,12 +11043,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>152529</t>
+          <t>152272</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>168277</t>
+          <t>168371</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11058,12 +11058,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11078,12 +11078,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>172156</t>
+          <t>172104</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>185894</t>
+          <t>186053</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11093,12 +11093,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11113,12 +11113,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>328974</t>
+          <t>330154</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>350256</t>
+          <t>351010</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>84,37%</t>
         </is>
       </c>
     </row>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35706</t>
+          <t>35825</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51161</t>
+          <t>51739</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11191,12 +11191,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24046</t>
+          <t>24125</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37846</t>
+          <t>38156</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11226,12 +11226,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>63624</t>
+          <t>62929</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>84675</t>
+          <t>83422</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11304,12 +11304,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>591</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11354,12 +11354,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -11499,12 +11499,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26777</t>
+          <t>26556</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41101</t>
+          <t>40881</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48820</t>
+          <t>48207</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65439</t>
+          <t>65331</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>80021</t>
+          <t>79923</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>101988</t>
+          <t>101099</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11584,12 +11584,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -11612,12 +11612,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76147</t>
+          <t>75483</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91615</t>
+          <t>91350</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11627,12 +11627,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11647,12 +11647,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>97837</t>
+          <t>97795</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>115234</t>
+          <t>115066</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11662,12 +11662,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11682,12 +11682,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>178727</t>
+          <t>179364</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>202182</t>
+          <t>201854</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14535</t>
+          <t>15456</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10766</t>
+          <t>10270</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20925</t>
+          <t>20484</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6035</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14421</t>
+          <t>14468</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11970,12 +11970,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7917</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -12025,12 +12025,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>9337</t>
+          <t>8915</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>18929</t>
+          <t>19839</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54374</t>
+          <t>53974</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70502</t>
+          <t>69959</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12083,12 +12083,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12103,12 +12103,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23927</t>
+          <t>23680</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36298</t>
+          <t>36580</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>82287</t>
+          <t>82176</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>103770</t>
+          <t>102916</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>67,02%</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17153</t>
+          <t>17923</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33191</t>
+          <t>33962</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16674</t>
+          <t>17009</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29474</t>
+          <t>29794</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>37482</t>
+          <t>38022</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>57768</t>
+          <t>58670</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9492</t>
+          <t>9657</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20490</t>
+          <t>20555</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12426,12 +12426,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19346</t>
+          <t>19461</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>35355</t>
+          <t>34623</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12461,12 +12461,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12481,12 +12481,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31945</t>
+          <t>32023</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>50971</t>
+          <t>51442</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12496,12 +12496,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,99%</t>
         </is>
       </c>
     </row>
@@ -12524,12 +12524,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95375</t>
+          <t>93054</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>118312</t>
+          <t>117495</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -12539,12 +12539,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,49%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -12559,12 +12559,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86764</t>
+          <t>85726</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>106855</t>
+          <t>105801</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -12574,12 +12574,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>186906</t>
+          <t>187407</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>218346</t>
+          <t>219842</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -12609,12 +12609,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>68,32%</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31621</t>
+          <t>32002</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>54423</t>
+          <t>56747</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12652,12 +12652,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12672,12 +12672,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27464</t>
+          <t>26875</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>46600</t>
+          <t>47200</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>64114</t>
+          <t>62649</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>93530</t>
+          <t>94014</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12722,12 +12722,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>29,22%</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8409</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12882,12 +12882,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12902,12 +12902,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>14217</t>
+          <t>13857</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12917,12 +12917,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>7862</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>17991</t>
+          <t>18610</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30888</t>
+          <t>29872</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>43041</t>
+          <t>43100</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -13015,12 +13015,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>41395</t>
+          <t>41038</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>57829</t>
+          <t>58132</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -13030,12 +13030,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>61,23%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>77270</t>
+          <t>76289</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>97221</t>
+          <t>98302</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13065,12 +13065,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>51,49%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>66,35%</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>6867</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19155</t>
+          <t>19846</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13108,12 +13108,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>27932</t>
+          <t>28159</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>44647</t>
+          <t>45568</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>37774</t>
+          <t>38082</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>58431</t>
+          <t>59177</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>39,94%</t>
         </is>
       </c>
     </row>
@@ -13323,12 +13323,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -13358,12 +13358,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>10918</t>
+          <t>10201</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -13373,12 +13373,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -13393,12 +13393,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4824</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>12458</t>
+          <t>12691</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -13408,12 +13408,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -13436,12 +13436,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>16541</t>
+          <t>16373</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28043</t>
+          <t>27871</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>32073</t>
+          <t>32766</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>44199</t>
+          <t>44436</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13506,12 +13506,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>53067</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>68977</t>
+          <t>70027</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>70,72%</t>
         </is>
       </c>
     </row>
@@ -13549,12 +13549,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5953</t>
+          <t>6447</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17818</t>
+          <t>18147</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13584,12 +13584,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13366</t>
+          <t>13087</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>24647</t>
+          <t>24171</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13619,12 +13619,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>21771</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>38639</t>
+          <t>38427</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,81%</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>206929</t>
+          <t>204505</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>241590</t>
+          <t>240847</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13814,12 +13814,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>263339</t>
+          <t>261951</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>300292</t>
+          <t>299807</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13829,12 +13829,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13849,12 +13849,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>480087</t>
+          <t>477607</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>533523</t>
+          <t>531176</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>336478</t>
+          <t>337453</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>375703</t>
+          <t>376500</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13927,12 +13927,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>333075</t>
+          <t>332953</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>371339</t>
+          <t>373645</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13962,12 +13962,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>678603</t>
+          <t>680868</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>736413</t>
+          <t>738208</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13977,12 +13977,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>51,53%</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>81891</t>
+          <t>81609</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>121462</t>
+          <t>120861</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>101661</t>
+          <t>102458</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>138230</t>
+          <t>138647</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14075,12 +14075,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>193944</t>
+          <t>191941</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>247365</t>
+          <t>243388</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14090,12 +14090,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
+          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>107422</t>
+          <t>297973</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>101455</t>
+          <t>278240</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>112779</t>
+          <t>315268</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>368</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>134451</t>
+          <t>262872</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>129755</t>
+          <t>250089</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>139027</t>
+          <t>275287</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>84,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>669</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>241873</t>
+          <t>560846</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>233981</t>
+          <t>536724</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>249164</t>
+          <t>581667</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>70,67%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>80,58%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51366</t>
+          <t>89214</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45827</t>
+          <t>72321</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57124</t>
+          <t>109624</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33296</t>
+          <t>58832</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28705</t>
+          <t>46950</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38013</t>
+          <t>71038</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>166</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>84662</t>
+          <t>148046</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>77666</t>
+          <t>128395</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>92334</t>
+          <t>171487</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>23,76%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>7003</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5840</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>12628</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>12925</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>7473</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6696</t>
+          <t>20391</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>162449</t>
+          <t>394190</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>162449</t>
+          <t>394190</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>162449</t>
+          <t>394190</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>168634</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168634</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>168634</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>852</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>331083</t>
+          <t>721817</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>331083</t>
+          <t>721817</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>331083</t>
+          <t>721817</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29992</t>
+          <t>101284</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26169</t>
+          <t>83979</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34039</t>
+          <t>119907</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44420</t>
+          <t>103472</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39719</t>
+          <t>89470</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>49390</t>
+          <t>118011</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>74412</t>
+          <t>204756</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>68090</t>
+          <t>183334</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>81495</t>
+          <t>228365</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>36,17%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56154</t>
+          <t>232231</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51955</t>
+          <t>213218</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60141</t>
+          <t>249356</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>61,92%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
+          <t>72,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75227</t>
+          <t>176380</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>70592</t>
+          <t>161565</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80318</t>
+          <t>190481</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>65,6%</t>
+          <t>66,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>459</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131382</t>
+          <t>408612</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>124610</t>
+          <t>384666</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>137620</t>
+          <t>430220</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>68,15%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>10832</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>5814</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6333</t>
+          <t>18082</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>11926</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6903</t>
+          <t>17919</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5054</t>
+          <t>12483</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9420</t>
+          <t>26251</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90257</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90257</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90257</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122440</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>122440</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>122440</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212697</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>212697</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212697</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14297</t>
+          <t>22844</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11191</t>
+          <t>13627</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18148</t>
+          <t>37450</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9823</t>
+          <t>12027</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7184</t>
+          <t>7074</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12654</t>
+          <t>18765</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>24120</t>
+          <t>34872</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>20373</t>
+          <t>25614</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28765</t>
+          <t>51507</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>117567</t>
+          <t>194260</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>113069</t>
+          <t>177710</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>122048</t>
+          <t>207928</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,46%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40721</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37406</t>
+          <t>64492</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>44201</t>
+          <t>81378</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,52%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>295</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>158288</t>
+          <t>267707</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>152388</t>
+          <t>249289</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>163777</t>
+          <t>283620</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>76,23%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21907</t>
+          <t>43451</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18647</t>
+          <t>33116</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26281</t>
+          <t>57015</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11611</t>
+          <t>26013</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9142</t>
+          <t>19336</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14227</t>
+          <t>33919</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>33518</t>
+          <t>69465</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>29259</t>
+          <t>56596</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>38155</t>
+          <t>83871</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>153771</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>153771</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>153771</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>215926</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>215926</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>215926</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10419</t>
+          <t>44118</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>30952</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13724</t>
+          <t>64588</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18421</t>
+          <t>51560</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14938</t>
+          <t>39878</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22108</t>
+          <t>65847</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>28840</t>
+          <t>95678</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>24665</t>
+          <t>77526</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>33933</t>
+          <t>118784</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>131384</t>
+          <t>441437</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>126461</t>
+          <t>415537</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>136158</t>
+          <t>461602</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>136314</t>
+          <t>382366</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>130421</t>
+          <t>365158</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>140922</t>
+          <t>398392</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>74,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>898</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>267698</t>
+          <t>823803</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>260226</t>
+          <t>794040</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>274945</t>
+          <t>852962</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>77,81%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29733</t>
+          <t>121148</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25479</t>
+          <t>103841</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34104</t>
+          <t>141731</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29292</t>
+          <t>55602</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>25355</t>
+          <t>45561</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>34023</t>
+          <t>66275</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>231</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>59024</t>
+          <t>176750</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>52735</t>
+          <t>154790</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>65451</t>
+          <t>200303</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>606703</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>606703</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>606703</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>489528</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>489528</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>489528</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1096231</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1096231</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1096231</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2555,107 +2555,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>7172</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6285</t>
+          <t>13795</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7433</t>
+          <t>16977</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>10272</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10590</t>
+          <t>27155</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>11495</t>
+          <t>24149</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>8354</t>
+          <t>16239</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>14729</t>
+          <t>33612</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -2668,107 +2668,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>54844</t>
+          <t>177937</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>51624</t>
+          <t>163502</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>58108</t>
+          <t>192365</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>81911</t>
+          <t>252337</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>77329</t>
+          <t>234765</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>86203</t>
+          <t>268632</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>497</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>136756</t>
+          <t>430274</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>131111</t>
+          <t>407598</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>142216</t>
+          <t>452766</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>68,47%</t>
         </is>
       </c>
     </row>
@@ -2781,107 +2781,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15832</t>
+          <t>68104</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13238</t>
+          <t>54597</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>83641</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>219</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36008</t>
+          <t>138767</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>31894</t>
+          <t>123370</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>40276</t>
+          <t>154405</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>292</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>51840</t>
+          <t>206871</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>46721</t>
+          <t>184822</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>56973</t>
+          <t>230545</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>34,86%</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>253214</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>253214</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>253214</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>125352</t>
+          <t>408080</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>125352</t>
+          <t>408080</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>125352</t>
+          <t>408080</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,22 +2964,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>200091</t>
+          <t>661294</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>200091</t>
+          <t>661294</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>200091</t>
+          <t>661294</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,107 +3011,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>25486</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>13870</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10123</t>
+          <t>40993</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10654</t>
+          <t>35900</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8221</t>
+          <t>24198</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>14021</t>
+          <t>50029</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>17807</t>
+          <t>61386</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>14293</t>
+          <t>45705</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>22045</t>
+          <t>82616</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>11,56%</t>
         </is>
       </c>
     </row>
@@ -3124,107 +3124,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41715</t>
+          <t>141042</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38230</t>
+          <t>125751</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44365</t>
+          <t>152993</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>74,19%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>342</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>70803</t>
+          <t>311284</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>66107</t>
+          <t>288286</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>75734</t>
+          <t>334624</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>112518</t>
+          <t>452325</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>106697</t>
+          <t>425039</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>118643</t>
+          <t>480091</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>67,17%</t>
         </is>
       </c>
     </row>
@@ -3237,107 +3237,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>996</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6886</t>
+          <t>8095</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>39267</t>
+          <t>198040</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>34721</t>
+          <t>175509</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>43619</t>
+          <t>218283</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>43985</t>
+          <t>201008</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>38819</t>
+          <t>178916</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>49233</t>
+          <t>224875</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>31,46%</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>53587</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>53587</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>53587</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3385,22 +3385,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120723</t>
+          <t>545223</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120723</t>
+          <t>545223</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120723</t>
+          <t>545223</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3420,22 +3420,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>773</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>174310</t>
+          <t>714719</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>174310</t>
+          <t>714719</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>174310</t>
+          <t>714719</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3467,107 +3467,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>173344</t>
+          <t>498879</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>162447</t>
+          <t>457027</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>183441</t>
+          <t>541273</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>225202</t>
+          <t>482807</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>213442</t>
+          <t>450010</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>236462</t>
+          <t>515067</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>398547</t>
+          <t>981686</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>383096</t>
+          <t>929267</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>415222</t>
+          <t>1037834</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -3580,107 +3580,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>453031</t>
+          <t>1276121</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>441963</t>
+          <t>1227784</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>465084</t>
+          <t>1322222</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>438273</t>
+          <t>1254645</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>426439</t>
+          <t>1214053</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>450375</t>
+          <t>1294821</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>891304</t>
+          <t>2530766</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>874230</t>
+          <t>2469781</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>908431</t>
+          <t>2592358</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -3693,107 +3693,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>79963</t>
+          <t>253507</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>72262</t>
+          <t>227339</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>87428</t>
+          <t>287219</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>119857</t>
+          <t>431431</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>112177</t>
+          <t>402683</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>129431</t>
+          <t>463052</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>981</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>199819</t>
+          <t>684938</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>187864</t>
+          <t>641400</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>210734</t>
+          <t>728884</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>706338</t>
+          <t>2028507</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3841,22 +3841,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>783332</t>
+          <t>2168883</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3876,22 +3876,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8387</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1489670</t>
+          <t>4197390</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4165,107 +4165,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>276141</t>
+          <t>160961</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>256059</t>
+          <t>152272</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>292208</t>
+          <t>168371</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>243580</t>
+          <t>179685</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>232497</t>
+          <t>172104</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>254442</t>
+          <t>186053</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>519722</t>
+          <t>340646</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>496982</t>
+          <t>330154</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>539612</t>
+          <t>351010</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>78,23%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>84,37%</t>
         </is>
       </c>
     </row>
@@ -4278,107 +4278,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82943</t>
+          <t>43047</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67340</t>
+          <t>35825</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>102372</t>
+          <t>51739</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50020</t>
+          <t>30391</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39778</t>
+          <t>24125</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60661</t>
+          <t>38156</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>181</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>132964</t>
+          <t>73439</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>113931</t>
+          <t>62929</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>154931</t>
+          <t>83422</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -4391,107 +4391,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6390</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11761</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>320</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>61</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11397</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>11690</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>591</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>18411</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -4504,22 +4504,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>365474</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>365474</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>365474</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4574,22 +4574,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>664376</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>664376</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>664376</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4621,107 +4621,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95711</t>
+          <t>33393</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78917</t>
+          <t>26556</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>113305</t>
+          <t>40881</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94593</t>
+          <t>56701</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>81426</t>
+          <t>48207</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108702</t>
+          <t>65331</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>190304</t>
+          <t>90094</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>169741</t>
+          <t>79923</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>213301</t>
+          <t>101099</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -4734,107 +4734,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>217912</t>
+          <t>83987</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>199784</t>
+          <t>75483</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>234636</t>
+          <t>91350</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>158713</t>
+          <t>106757</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>145143</t>
+          <t>97795</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>172703</t>
+          <t>115066</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>465</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>376624</t>
+          <t>190743</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>352854</t>
+          <t>179364</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>397525</t>
+          <t>201854</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -4847,107 +4847,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10424</t>
+          <t>7568</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5676</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17563</t>
+          <t>15456</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11430</t>
+          <t>10270</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17200</t>
+          <t>13153</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11986</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25181</t>
+          <t>20484</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5030,22 +5030,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5077,107 +5077,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18812</t>
+          <t>9486</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46286</t>
+          <t>14468</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9353</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15046</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>28165</t>
+          <t>13616</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>7769</t>
+          <t>8915</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>53664</t>
+          <t>19839</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -5190,107 +5190,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>419784</t>
+          <t>62281</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>352378</t>
+          <t>53974</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>459809</t>
+          <t>69959</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64354</t>
+          <t>30214</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56425</t>
+          <t>23680</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71325</t>
+          <t>36580</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,96%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>484138</t>
+          <t>92495</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>411852</t>
+          <t>82176</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>540132</t>
+          <t>102916</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>67,02%</t>
         </is>
       </c>
     </row>
@@ -5303,107 +5303,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>36828</t>
+          <t>24386</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10187</t>
+          <t>17923</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>82076</t>
+          <t>33962</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23858</t>
+          <t>23060</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18059</t>
+          <t>17009</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>30817</t>
+          <t>29794</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>60686</t>
+          <t>47446</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23201</t>
+          <t>38022</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>111638</t>
+          <t>58670</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -5416,22 +5416,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5451,22 +5451,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5486,22 +5486,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5533,107 +5533,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32026</t>
+          <t>14430</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21032</t>
+          <t>9657</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44971</t>
+          <t>20555</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41287</t>
+          <t>25999</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12952</t>
+          <t>19461</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>65913</t>
+          <t>34623</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>73313</t>
+          <t>40429</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40547</t>
+          <t>32023</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>96707</t>
+          <t>51442</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>15,99%</t>
         </is>
       </c>
     </row>
@@ -5646,107 +5646,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>389859</t>
+          <t>106892</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>367479</t>
+          <t>93054</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>408726</t>
+          <t>117495</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>206</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>545743</t>
+          <t>96678</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>496662</t>
+          <t>85726</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>603441</t>
+          <t>105801</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>60,91%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,04%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>427</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>935604</t>
+          <t>203570</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>874783</t>
+          <t>187407</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1037407</t>
+          <t>219842</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>68,32%</t>
         </is>
       </c>
     </row>
@@ -5759,107 +5759,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>112219</t>
+          <t>41737</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95420</t>
+          <t>32002</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>132709</t>
+          <t>56747</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>49421</t>
+          <t>36051</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17606</t>
+          <t>26875</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>76970</t>
+          <t>47200</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>161</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>161640</t>
+          <t>77787</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>91945</t>
+          <t>62649</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>207751</t>
+          <t>94014</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>29,22%</t>
         </is>
       </c>
     </row>
@@ -5872,22 +5872,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>534104</t>
+          <t>163059</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>534104</t>
+          <t>163059</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>534104</t>
+          <t>163059</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5907,22 +5907,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>636452</t>
+          <t>158728</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>636452</t>
+          <t>158728</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>636452</t>
+          <t>158728</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5942,22 +5942,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>665</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1170557</t>
+          <t>321786</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1170557</t>
+          <t>321786</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1170557</t>
+          <t>321786</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5989,107 +5989,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5456</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12609</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11711</t>
+          <t>8676</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>18975</t>
+          <t>13857</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>17167</t>
+          <t>12664</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>10545</t>
+          <t>7862</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>26013</t>
+          <t>18610</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -6102,107 +6102,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>147770</t>
+          <t>37763</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>133166</t>
+          <t>29872</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>161297</t>
+          <t>43100</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>283735</t>
+          <t>49631</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>251065</t>
+          <t>41038</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>344816</t>
+          <t>58132</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>168</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>431505</t>
+          <t>87395</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>397649</t>
+          <t>76289</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>501829</t>
+          <t>98302</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>51,49%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>66,35%</t>
         </is>
       </c>
     </row>
@@ -6215,107 +6215,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>58003</t>
+          <t>11958</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45167</t>
+          <t>6867</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>72537</t>
+          <t>19846</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>130248</t>
+          <t>36133</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>73884</t>
+          <t>28159</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>160443</t>
+          <t>45568</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>188251</t>
+          <t>48091</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>120584</t>
+          <t>38082</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>220382</t>
+          <t>59177</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>39,94%</t>
         </is>
       </c>
     </row>
@@ -6328,22 +6328,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>211229</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>211229</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>211229</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6363,22 +6363,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>425693</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>425693</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>425693</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6398,22 +6398,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>636922</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>636922</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>636922</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6445,107 +6445,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>22597</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>12207</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>37510</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>22,49%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>33323</t>
+          <t>6299</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>22592</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>47069</t>
+          <t>10201</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>55920</t>
+          <t>7800</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>41129</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>75960</t>
+          <t>12691</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -6558,107 +6558,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>141393</t>
+          <t>22901</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>126074</t>
+          <t>16373</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>152243</t>
+          <t>27871</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>272611</t>
+          <t>38972</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>251282</t>
+          <t>32766</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>292546</t>
+          <t>44436</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>414004</t>
+          <t>61873</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>388042</t>
+          <t>53618</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>439119</t>
+          <t>70027</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>59,44%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>70,72%</t>
         </is>
       </c>
     </row>
@@ -6671,107 +6671,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>11273</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>6447</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7661</t>
+          <t>18147</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>180175</t>
+          <t>18079</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>160174</t>
+          <t>13087</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>199088</t>
+          <t>24171</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>182946</t>
+          <t>29352</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>162749</t>
+          <t>21771</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>204612</t>
+          <t>38427</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>38,81%</t>
         </is>
       </c>
     </row>
@@ -6784,22 +6784,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>35675</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>35675</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>35675</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6819,22 +6819,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>486109</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>486109</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>486109</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>652870</t>
+          <t>99025</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>652870</t>
+          <t>99025</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>652870</t>
+          <t>99025</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6901,107 +6901,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>450743</t>
+          <t>223759</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>314724</t>
+          <t>204505</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>528647</t>
+          <t>240847</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>757</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>433847</t>
+          <t>281490</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>309203</t>
+          <t>261951</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>494431</t>
+          <t>299807</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>884590</t>
+          <t>505249</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>703717</t>
+          <t>477607</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1001467</t>
+          <t>531176</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -7014,107 +7014,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1399662</t>
+          <t>356872</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1292551</t>
+          <t>337453</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1602779</t>
+          <t>376500</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>67,39%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>804</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1375175</t>
+          <t>352643</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1264741</t>
+          <t>332953</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1619049</t>
+          <t>373645</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>57,36%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>2774837</t>
+          <t>709515</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>2580921</t>
+          <t>680868</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>3086805</t>
+          <t>738208</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>64,8%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>51,53%</t>
         </is>
       </c>
     </row>
@@ -7127,107 +7127,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>226635</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>148892</t>
+          <t>81609</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>267305</t>
+          <t>120861</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>395778</t>
+          <t>119228</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>281593</t>
+          <t>102458</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>455114</t>
+          <t>138647</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>488</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>622413</t>
+          <t>217783</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>491533</t>
+          <t>191941</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>705103</t>
+          <t>243388</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -7240,22 +7240,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2077040</t>
+          <t>679186</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7275,22 +7275,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2960</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2204800</t>
+          <t>753361</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7310,22 +7310,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4281840</t>
+          <t>1432547</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
+          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11033,107 +11033,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>160961</t>
+          <t>107422</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>152272</t>
+          <t>101455</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>168371</t>
+          <t>112779</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>179685</t>
+          <t>134451</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>172104</t>
+          <t>129755</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>186053</t>
+          <t>139027</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>340646</t>
+          <t>241873</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>330154</t>
+          <t>233981</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>351010</t>
+          <t>249164</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>70,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>75,26%</t>
         </is>
       </c>
     </row>
@@ -11146,107 +11146,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43047</t>
+          <t>51366</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35825</t>
+          <t>45827</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51739</t>
+          <t>57124</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30391</t>
+          <t>33296</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24125</t>
+          <t>28705</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38156</t>
+          <t>38013</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>456</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>73439</t>
+          <t>84662</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>62929</t>
+          <t>77666</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>83422</t>
+          <t>92334</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -11259,107 +11259,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>5840</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>887</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>352</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>2902</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -11372,22 +11372,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11407,22 +11407,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>879</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11442,22 +11442,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11489,107 +11489,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33393</t>
+          <t>29992</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26556</t>
+          <t>26169</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40881</t>
+          <t>34039</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>239</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56701</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48207</t>
+          <t>39719</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65331</t>
+          <t>49390</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>400</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>90094</t>
+          <t>74412</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>79923</t>
+          <t>68090</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>101099</t>
+          <t>81495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>38,32%</t>
         </is>
       </c>
     </row>
@@ -11602,107 +11602,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83987</t>
+          <t>56154</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75483</t>
+          <t>51955</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91350</t>
+          <t>60141</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>414</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>106757</t>
+          <t>75227</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>97795</t>
+          <t>70592</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>115066</t>
+          <t>80318</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190743</t>
+          <t>131382</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>179364</t>
+          <t>124610</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>201854</t>
+          <t>137620</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>61,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>64,7%</t>
         </is>
       </c>
     </row>
@@ -11715,107 +11715,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6333</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7568</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3815</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15456</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10270</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13153</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>5054</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20484</t>
+          <t>9420</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -11828,22 +11828,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11863,22 +11863,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11898,22 +11898,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11945,107 +11945,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9486</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14468</t>
+          <t>18148</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>7184</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8247</t>
+          <t>12654</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>13616</t>
+          <t>24120</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>8915</t>
+          <t>20373</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>19839</t>
+          <t>28765</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -12058,107 +12058,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>705</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62281</t>
+          <t>117567</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53974</t>
+          <t>113069</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69959</t>
+          <t>122048</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>243</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30214</t>
+          <t>40721</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23680</t>
+          <t>37406</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36580</t>
+          <t>44201</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>65,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>71,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>948</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>92495</t>
+          <t>158288</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>82176</t>
+          <t>152388</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>102916</t>
+          <t>163777</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>73,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>53,51%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>75,85%</t>
         </is>
       </c>
     </row>
@@ -12171,107 +12171,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24386</t>
+          <t>21907</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17923</t>
+          <t>18647</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33962</t>
+          <t>26281</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23060</t>
+          <t>11611</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17009</t>
+          <t>9142</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29794</t>
+          <t>14227</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>47446</t>
+          <t>33518</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>38022</t>
+          <t>29259</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>58670</t>
+          <t>38155</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>17,67%</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12319,22 +12319,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12401,107 +12401,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14430</t>
+          <t>10419</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9657</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20555</t>
+          <t>13724</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25999</t>
+          <t>18421</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19461</t>
+          <t>14938</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34623</t>
+          <t>22108</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>162</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>40429</t>
+          <t>28840</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>32023</t>
+          <t>24665</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>51442</t>
+          <t>33933</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -12514,107 +12514,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>106892</t>
+          <t>131384</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>93054</t>
+          <t>126461</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>117495</t>
+          <t>136158</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>76,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>766</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>96678</t>
+          <t>136314</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85726</t>
+          <t>130421</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>105801</t>
+          <t>140922</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>70,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>203570</t>
+          <t>267698</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187407</t>
+          <t>260226</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>219842</t>
+          <t>274945</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>77,33%</t>
         </is>
       </c>
     </row>
@@ -12627,107 +12627,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41737</t>
+          <t>29733</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32002</t>
+          <t>25479</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>56747</t>
+          <t>34104</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36051</t>
+          <t>29292</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>26875</t>
+          <t>25355</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>47200</t>
+          <t>34023</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>360</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>77787</t>
+          <t>59024</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>62649</t>
+          <t>52735</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>94014</t>
+          <t>65451</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -12740,22 +12740,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>163059</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>163059</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>163059</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12775,22 +12775,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>158728</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>158728</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>158728</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12810,22 +12810,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>321786</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>321786</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>321786</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12857,107 +12857,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8676</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>5236</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>13857</t>
+          <t>10590</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>12664</t>
+          <t>11495</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>7862</t>
+          <t>8354</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>18610</t>
+          <t>14729</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -12970,107 +12970,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37763</t>
+          <t>54844</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29872</t>
+          <t>51624</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>43100</t>
+          <t>58108</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>73,38%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>479</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>49631</t>
+          <t>81911</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>41038</t>
+          <t>77329</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>58132</t>
+          <t>86203</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>87395</t>
+          <t>136756</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>76289</t>
+          <t>131111</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98302</t>
+          <t>142216</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>71,08%</t>
         </is>
       </c>
     </row>
@@ -13083,107 +13083,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11958</t>
+          <t>15832</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6867</t>
+          <t>13238</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19846</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36133</t>
+          <t>36008</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>28159</t>
+          <t>31894</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45568</t>
+          <t>40276</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>324</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>48091</t>
+          <t>51840</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>38082</t>
+          <t>46721</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>59177</t>
+          <t>56973</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>28,47%</t>
         </is>
       </c>
     </row>
@@ -13196,22 +13196,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13231,22 +13231,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>745</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13266,22 +13266,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13313,107 +13313,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>10123</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6299</t>
+          <t>10654</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>8221</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>10201</t>
+          <t>14021</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>7800</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>14293</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>12691</t>
+          <t>22045</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -13426,107 +13426,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>22901</t>
+          <t>41715</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>16373</t>
+          <t>38230</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>27871</t>
+          <t>44365</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>38972</t>
+          <t>70803</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>32766</t>
+          <t>66107</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>44436</t>
+          <t>75734</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>587</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>61873</t>
+          <t>112518</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>53618</t>
+          <t>106697</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>70027</t>
+          <t>118643</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>68,06%</t>
         </is>
       </c>
     </row>
@@ -13539,107 +13539,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11273</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6447</t>
+          <t>3254</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18147</t>
+          <t>6886</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18079</t>
+          <t>39267</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>13087</t>
+          <t>34721</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>24171</t>
+          <t>43619</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>262</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>29352</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>21771</t>
+          <t>38819</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>38427</t>
+          <t>49233</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>28,24%</t>
         </is>
       </c>
     </row>
@@ -13652,22 +13652,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>35675</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>35675</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35675</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13687,22 +13687,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13722,22 +13722,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>940</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>99025</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>99025</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>99025</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13769,107 +13769,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>223759</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>204505</t>
+          <t>162447</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>240847</t>
+          <t>183441</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>281490</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>261951</t>
+          <t>213442</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>299807</t>
+          <t>236462</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>505249</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>477607</t>
+          <t>383096</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>531176</t>
+          <t>415222</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>27,87%</t>
         </is>
       </c>
     </row>
@@ -13882,107 +13882,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>356872</t>
+          <t>453031</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>337453</t>
+          <t>441963</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>376500</t>
+          <t>465084</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>352643</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>332953</t>
+          <t>426439</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>373645</t>
+          <t>450375</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>709515</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>680868</t>
+          <t>874230</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>738208</t>
+          <t>908431</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>60,98%</t>
         </is>
       </c>
     </row>
@@ -13995,107 +13995,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>81609</t>
+          <t>72262</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>120861</t>
+          <t>87428</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>741</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>119228</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>102458</t>
+          <t>112177</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>138647</t>
+          <t>129431</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>217783</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>191941</t>
+          <t>187864</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>243388</t>
+          <t>210734</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -14108,22 +14108,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>679186</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -14143,22 +14143,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>753361</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -14178,22 +14178,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>8387</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1432547</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
